--- a/biology/Botanique/Nostocaceae/Nostocaceae.xlsx
+++ b/biology/Botanique/Nostocaceae/Nostocaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nostocaceae sont une famille de cyanobactéries de l’ordre des Nostocales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (20 mars 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (20 mars 2019) :
 genre Aliinostoc S.N.Bagchi, N.Dubey &amp; P.Singh
 genre Amorphonostoc Elenkin
 genre Anabaena Bory ex Bornet &amp; Flahault
@@ -555,7 +569,7 @@
 genre Trichormus (Ralfs ex É.Bornet &amp; C.Flahault) J.Komárek &amp; K.Anagnostidis
 genre Veteronostocale Schopf &amp; Blacic
 genre Wollea É.Bornet &amp; C.Flahault
-Selon Catalogue of Life                                   (20 mars 2019)[2] et ITIS      (20 mars 2019)[3] :
+Selon Catalogue of Life                                   (20 mars 2019) et ITIS      (20 mars 2019) :
 genre Anabaena St. Vincent, 1886, Ex Bornet &amp; Flah
 genre Anabaenopsis Miller, 1923
 genre Aphanizomenon Morren, 1888 Ex Bornet &amp; Flahault
@@ -565,7 +579,7 @@
 genre Hormothamnion Grunow, 1888 Ex Bornet &amp; Flahault
 genre Nostoc Vaucher, 1888, Ex Bornet &amp; Flahaul
 genre Pseudanabaena Lauterborn, 1915
-Selon World Register of Marine Species                               (20 mars 2019)[4] :
+Selon World Register of Marine Species                               (20 mars 2019) :
 genre Anabaena Bory de Saint-Vincent ex Bornet &amp; Flahault, 1886
 genre Anabaina
 genre Aphanizomenon A.Morren ex Bornet &amp; Flahault, 1888
